--- a/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт2.xlsx
+++ b/wwwroot/Files/ForInput/ОтправкаВГЛ_экспорт2.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\OneDrive\Рабочий стол\"/>
@@ -15,16 +15,11 @@
     <sheet name="ОтправкаВГЛ_экспорт" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>лаборатория</t>
   </si>
@@ -92,72 +87,39 @@
     <t>ном_обр</t>
   </si>
   <si>
-    <t>БАЛАШИХА</t>
-  </si>
-  <si>
-    <t>Домодедово</t>
-  </si>
-  <si>
-    <t>102</t>
+    <t>МО ЦПБ  СПИД ИЗ</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>М</t>
   </si>
   <si>
-    <t>11111111111</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Architect HIV Ag/Ab combo 13456ВЕ00</t>
-  </si>
-  <si>
-    <t>АБИНСК</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>Абатский р-н</t>
-  </si>
-  <si>
-    <t>город</t>
-  </si>
-  <si>
-    <t>гор окр</t>
-  </si>
-  <si>
-    <t>иововщшзроиавзровазровазщротвзщро</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>third</t>
+    <t>Абзелиловский р-н</t>
+  </si>
+  <si>
+    <t>Азербайджан</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ALINITY I HIV Ag/Ab Combo41177BE00</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="173" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -213,19 +175,34 @@
   </fills>
   <borders count="3">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color indexed="8"/>
-      </end>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -234,44 +211,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="thin">
-        <color indexed="22"/>
-      </start>
-      <end style="thin">
-        <color indexed="22"/>
-      </end>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -410,25 +369,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -436,25 +395,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -467,21 +426,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -495,7 +454,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -507,32 +466,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -552,12 +511,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="16384" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="240" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -647,58 +604,58 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44893</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="d">
-        <v>2022-10-13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="d">
-        <v>2022-10-27</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="4">
+        <v>44893</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="4" t="d">
-        <v>2022-10-27</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>30</v>
@@ -708,74 +665,6 @@
       </c>
       <c r="V2" s="5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="d">
-        <v>2022-10-27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="d">
-        <v>2022-10-27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="4" t="d">
-        <v>2022-10-27</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
